--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y470"/>
+  <dimension ref="A1:Y471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28123,7 +28123,7 @@
       </c>
       <c r="R469" s="2" t="inlineStr"/>
     </row>
-    <row r="470">
+    <row r="470" ht="15" customHeight="1">
       <c r="A470" t="inlineStr">
         <is>
           <t>A 40038-2023</t>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28179,6 +28179,68 @@
         <v>0</v>
       </c>
       <c r="R470" s="2" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>A 42809-2023</t>
+        </is>
+      </c>
+      <c r="B471" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C471" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N471" t="n">
+        <v>0</v>
+      </c>
+      <c r="O471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R471" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 26885-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 26885-2023.xlsx", "A 26885-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 26885-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 26885-2023.png", "A 26885-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 26885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 26885-2023.docx", "A 26885-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 26885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 26885-2023.docx", "A 26885-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 26885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 26885-2023.docx", "A 26885-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 26885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 26885-2023.docx", "A 26885-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 45174-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 45174-2021.xlsx", "A 45174-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 45174-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 45174-2021.png", "A 45174-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 45174-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 45174-2021.docx", "A 45174-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 45174-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 45174-2021.docx", "A 45174-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 45174-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 45174-2021.docx", "A 45174-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 45174-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 45174-2021.docx", "A 45174-2021")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,27 +805,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 69614-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 69614-2018.xlsx", "A 69614-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 69614-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 69614-2018.png", "A 69614-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 69614-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 69614-2018.docx", "A 69614-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 69614-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 69614-2018.docx", "A 69614-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 69614-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 69614-2018.docx", "A 69614-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 69614-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 69614-2018.docx", "A 69614-2018")</f>
         <v/>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,27 +892,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 17382-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 17382-2020.xlsx", "A 17382-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 17382-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 17382-2020.png", "A 17382-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 17382-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 17382-2020.docx", "A 17382-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 17382-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 17382-2020.docx", "A 17382-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 17382-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 17382-2020.docx", "A 17382-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 17382-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 17382-2020.docx", "A 17382-2020")</f>
         <v/>
       </c>
     </row>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -979,27 +979,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 42644-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 42644-2021.xlsx", "A 42644-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 42644-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 42644-2021.png", "A 42644-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 42644-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 42644-2021.docx", "A 42644-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 42644-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 42644-2021.docx", "A 42644-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 42644-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 42644-2021.docx", "A 42644-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 42644-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 42644-2021.docx", "A 42644-2021")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,31 +1065,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 57572-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 57572-2021.xlsx", "A 57572-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 57572-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 57572-2021.png", "A 57572-2021")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/knärot/A 57572-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/knärot/A 57572-2021.png", "A 57572-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 57572-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 57572-2021.docx", "A 57572-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 57572-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 57572-2021.docx", "A 57572-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 57572-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 57572-2021.docx", "A 57572-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 57572-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 57572-2021.docx", "A 57572-2021")</f>
         <v/>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,27 +1154,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 52506-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 52506-2018.xlsx", "A 52506-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 52506-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 52506-2018.png", "A 52506-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 52506-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 52506-2018.docx", "A 52506-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 52506-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 52506-2018.docx", "A 52506-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 52506-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 52506-2018.docx", "A 52506-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 52506-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 52506-2018.docx", "A 52506-2018")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1239,27 +1239,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 38063-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 38063-2019.xlsx", "A 38063-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 38063-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 38063-2019.png", "A 38063-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 38063-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 38063-2019.docx", "A 38063-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 38063-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 38063-2019.docx", "A 38063-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 38063-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 38063-2019.docx", "A 38063-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 38063-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 38063-2019.docx", "A 38063-2019")</f>
         <v/>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1329,27 +1329,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 63112-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 63112-2019.xlsx", "A 63112-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 63112-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 63112-2019.png", "A 63112-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 63112-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 63112-2019.docx", "A 63112-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 63112-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 63112-2019.docx", "A 63112-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 63112-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 63112-2019.docx", "A 63112-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 63112-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 63112-2019.docx", "A 63112-2019")</f>
         <v/>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1414,27 +1414,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 68747-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 68747-2019.xlsx", "A 68747-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 68747-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 68747-2019.png", "A 68747-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 68747-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 68747-2019.docx", "A 68747-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 68747-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 68747-2019.docx", "A 68747-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 68747-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 68747-2019.docx", "A 68747-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 68747-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 68747-2019.docx", "A 68747-2019")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1499,27 +1499,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 5277-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 5277-2020.xlsx", "A 5277-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 5277-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 5277-2020.png", "A 5277-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 5277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 5277-2020.docx", "A 5277-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 5277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 5277-2020.docx", "A 5277-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 5277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 5277-2020.docx", "A 5277-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 5277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 5277-2020.docx", "A 5277-2020")</f>
         <v/>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1584,27 +1584,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 28412-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 28412-2020.xlsx", "A 28412-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 28412-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 28412-2020.png", "A 28412-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 28412-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 28412-2020.docx", "A 28412-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 28412-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 28412-2020.docx", "A 28412-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 28412-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 28412-2020.docx", "A 28412-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 28412-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 28412-2020.docx", "A 28412-2020")</f>
         <v/>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,31 +1674,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 33035-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 33035-2020.xlsx", "A 33035-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 33035-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 33035-2020.png", "A 33035-2020")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/knärot/A 33035-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/knärot/A 33035-2020.png", "A 33035-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 33035-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 33035-2020.docx", "A 33035-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 33035-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 33035-2020.docx", "A 33035-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 33035-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 33035-2020.docx", "A 33035-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 33035-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 33035-2020.docx", "A 33035-2020")</f>
         <v/>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1763,27 +1763,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 54232-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 54232-2020.xlsx", "A 54232-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 54232-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 54232-2020.png", "A 54232-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 54232-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 54232-2020.docx", "A 54232-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 54232-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 54232-2020.docx", "A 54232-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 54232-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 54232-2020.docx", "A 54232-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 54232-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 54232-2020.docx", "A 54232-2020")</f>
         <v/>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1848,27 +1848,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 23519-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 23519-2021.xlsx", "A 23519-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 23519-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 23519-2021.png", "A 23519-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 23519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 23519-2021.docx", "A 23519-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 23519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 23519-2021.docx", "A 23519-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 23519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 23519-2021.docx", "A 23519-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 23519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 23519-2021.docx", "A 23519-2021")</f>
         <v/>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1933,27 +1933,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 23982-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 23982-2021.xlsx", "A 23982-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 23982-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 23982-2021.png", "A 23982-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 23982-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 23982-2021.docx", "A 23982-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 23982-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 23982-2021.docx", "A 23982-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 23982-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 23982-2021.docx", "A 23982-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 23982-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 23982-2021.docx", "A 23982-2021")</f>
         <v/>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2018,27 +2018,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 36840-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 36840-2021.xlsx", "A 36840-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 36840-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 36840-2021.png", "A 36840-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 36840-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 36840-2021.docx", "A 36840-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 36840-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 36840-2021.docx", "A 36840-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 36840-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 36840-2021.docx", "A 36840-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 36840-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 36840-2021.docx", "A 36840-2021")</f>
         <v/>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2103,27 +2103,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 39846-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 39846-2021.xlsx", "A 39846-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 39846-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 39846-2021.png", "A 39846-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 39846-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 39846-2021.docx", "A 39846-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 39846-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 39846-2021.docx", "A 39846-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 39846-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 39846-2021.docx", "A 39846-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 39846-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 39846-2021.docx", "A 39846-2021")</f>
         <v/>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,27 +2188,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 6166-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 6166-2023.xlsx", "A 6166-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 6166-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 6166-2023.png", "A 6166-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 6166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 6166-2023.docx", "A 6166-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 6166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 6166-2023.docx", "A 6166-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 6166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 6166-2023.docx", "A 6166-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 6166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 6166-2023.docx", "A 6166-2023")</f>
         <v/>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2273,31 +2273,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 12807-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 12807-2023.xlsx", "A 12807-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 12807-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 12807-2023.png", "A 12807-2023")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/knärot/A 12807-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/knärot/A 12807-2023.png", "A 12807-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 12807-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 12807-2023.docx", "A 12807-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 12807-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 12807-2023.docx", "A 12807-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 12807-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 12807-2023.docx", "A 12807-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 12807-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 12807-2023.docx", "A 12807-2023")</f>
         <v/>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2362,27 +2362,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 17023-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 17023-2023.xlsx", "A 17023-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 17023-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 17023-2023.png", "A 17023-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 17023-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 17023-2023.docx", "A 17023-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 17023-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 17023-2023.docx", "A 17023-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 17023-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 17023-2023.docx", "A 17023-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 17023-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 17023-2023.docx", "A 17023-2023")</f>
         <v/>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,27 +2447,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 34166-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/artfynd/A 34166-2023.xlsx", "A 34166-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 34166-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/kartor/A 34166-2023.png", "A 34166-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 34166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomål/A 34166-2023.docx", "A 34166-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 34166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/klagomålsmail/A 34166-2023.docx", "A 34166-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 34166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsyn/A 34166-2023.docx", "A 34166-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 34166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARK/tillsynsmail/A 34166-2023.docx", "A 34166-2023")</f>
         <v/>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y471"/>
+  <dimension ref="A1:Y475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
       </c>
       <c r="R470" s="2" t="inlineStr"/>
     </row>
-    <row r="471">
+    <row r="471" ht="15" customHeight="1">
       <c r="A471" t="inlineStr">
         <is>
           <t>A 42809-2023</t>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28241,6 +28241,234 @@
         <v>0</v>
       </c>
       <c r="R471" s="2" t="inlineStr"/>
+    </row>
+    <row r="472" ht="15" customHeight="1">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>A 44249-2023</t>
+        </is>
+      </c>
+      <c r="B472" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C472" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N472" t="n">
+        <v>0</v>
+      </c>
+      <c r="O472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R472" s="2" t="inlineStr"/>
+    </row>
+    <row r="473" ht="15" customHeight="1">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>A 44211-2023</t>
+        </is>
+      </c>
+      <c r="B473" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C473" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N473" t="n">
+        <v>0</v>
+      </c>
+      <c r="O473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R473" s="2" t="inlineStr"/>
+    </row>
+    <row r="474" ht="15" customHeight="1">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>A 44243-2023</t>
+        </is>
+      </c>
+      <c r="B474" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C474" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N474" t="n">
+        <v>0</v>
+      </c>
+      <c r="O474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R474" s="2" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>A 44435-2023</t>
+        </is>
+      </c>
+      <c r="B475" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C475" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0</v>
+      </c>
+      <c r="K475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N475" t="n">
+        <v>0</v>
+      </c>
+      <c r="O475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R475" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y475"/>
+  <dimension ref="A1:Y476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45188</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45188</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
       </c>
       <c r="R474" s="2" t="inlineStr"/>
     </row>
-    <row r="475">
+    <row r="475" ht="15" customHeight="1">
       <c r="A475" t="inlineStr">
         <is>
           <t>A 44435-2023</t>
@@ -28423,7 +28423,7 @@
         <v>45189</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28469,6 +28469,63 @@
         <v>0</v>
       </c>
       <c r="R475" s="2" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>A 44897-2023</t>
+        </is>
+      </c>
+      <c r="B476" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C476" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>MARK</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>1</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N476" t="n">
+        <v>0</v>
+      </c>
+      <c r="O476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R476" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45188</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45188</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45189</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45190</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45188</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45188</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45189</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45190</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45188</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45188</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45189</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45190</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>

--- a/Översikt MARK.xlsx
+++ b/Översikt MARK.xlsx
@@ -572,7 +572,7 @@
         <v>45093</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44439</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43447</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43923</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44428</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>43388</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43683</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43791</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43860</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43998</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44019</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44126</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45001</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45137</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43319</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43321</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43337</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43346</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43346</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>43353</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>43362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>43364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>43364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>43369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>43411</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>43417</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>43420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>43420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>43420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>43420</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>43424</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>43433</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>43436</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43439</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43439</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43439</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>43447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>43487</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43489</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43494</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43497</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43515</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43515</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43515</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43521</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43521</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43535</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43535</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43543</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43551</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43565</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43566</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43567</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43570</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43578</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>43606</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>43612</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>43612</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>43612</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>43636</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43644</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>43671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>43678</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>43679</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43682</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43691</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43706</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43725</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43725</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43758</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43797</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43797</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43801</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43809</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43837</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>43844</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>43845</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>43857</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>43858</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>43860</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>43860</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43860</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>43860</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>43860</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>43860</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>43874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>43893</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43902</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43906</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>43907</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>43908</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43916</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43920</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43923</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43927</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43973</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43976</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43980</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43981</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43983</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43985</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43987</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43987</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43993</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43997</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43997</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43997</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43999</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44005</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44005</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44018</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>44019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44019</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44020</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44020</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44022</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44035</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44072</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44083</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44091</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44097</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44104</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44105</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44106</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44106</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44113</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44118</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44131</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44131</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44131</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44137</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44144</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44153</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44154</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44158</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44159</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44159</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44168</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44169</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44173</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44174</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>44195</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44203</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44204</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44206</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44208</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>44218</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>44230</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44230</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>44236</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44238</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>44238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44249</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44252</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>44253</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44271</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44271</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>44271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44272</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44272</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>44285</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>44295</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44328</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44336</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44340</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>44363</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>44363</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>44368</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44375</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44377</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44378</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44379</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44385</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>44400</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>44407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44411</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44416</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44425</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44430</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44432</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44448</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44452</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44453</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44456</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44467</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44469</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44469</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44470</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44473</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44475</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44475</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44475</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44475</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44489</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44489</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44497</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44497</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>44497</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44501</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44505</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44522</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44531</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44531</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44564</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44574</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44580</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44588</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44589</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44596</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44599</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44606</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>44609</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>44622</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>44624</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>44630</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44631</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44631</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44637</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44648</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44652</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44652</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44692</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44693</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44696</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44699</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44715</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44715</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44720</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44720</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44722</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44725</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44725</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44725</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44732</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44732</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44733</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44733</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44734</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44750</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44755</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44764</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44764</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44768</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44768</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44792</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44798</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44803</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44803</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44804</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44811</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44811</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44813</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44813</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44813</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44855</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44869</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44869</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44869</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44896</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44896</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44897</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44897</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44907</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44907</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44907</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44908</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44928</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44935</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44935</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>44937</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44943</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44950</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44950</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44950</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44950</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44950</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44953</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         <v>44957</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44971</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44973</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44973</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44982</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44987</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45012</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45019</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45021</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>45021</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45022</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>45028</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>45029</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45029</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>45030</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45030</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45030</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45035</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45056</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45057</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45057</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45070</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45084</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45091</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45091</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45092</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45093</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45093</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45093</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>45098</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45099</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45106</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>45111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45113</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>45113</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45119</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45119</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45124</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45131</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45135</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>45137</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>45137</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>45137</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>45137</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45137</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45140</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45140</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>45140</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>45140</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45140</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>45140</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45160</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45160</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45168</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45182</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45188</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45188</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45189</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45190</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
